--- a/xmmCV.xlsx
+++ b/xmmCV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/pulsar/xmm_CV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baotong/Desktop/doc_file/xray_astro/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6B7F76-5821-444C-A108-B7AEA4E40FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9763C72-0D84-9E4C-99D1-F83CC7255978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42080" yWindow="3300" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{9590E9C2-2E9C-7C4F-95FF-F25CE9DE0D35}"/>
+    <workbookView xWindow="38120" yWindow="3340" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{9590E9C2-2E9C-7C4F-95FF-F25CE9DE0D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>HT CAS</t>
   </si>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>WZ Sge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP Eri </t>
+  </si>
+  <si>
+    <t>V558 Vir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V396 Hya  </t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE68569-5D09-724A-8DAA-D7B5931A89FD}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1198,23 +1207,23 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>36</v>
+      <c r="A7" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -1222,7 +1231,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
@@ -1230,7 +1239,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>45</v>
@@ -1238,7 +1247,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -1246,15 +1255,15 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
+      <c r="A12" t="s">
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -1262,7 +1271,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
@@ -1270,7 +1279,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
@@ -1278,55 +1287,83 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" s="3" customFormat="1">
       <c r="A18" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
       <c r="D18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="3" customFormat="1">
-      <c r="A19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="3" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
-        <v>56</v>
+      <c r="A20" t="s">
+        <v>53</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D18">
-    <sortCondition ref="A1:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D23">
+    <sortCondition ref="D1:D23"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xmmCV.xlsx
+++ b/xmmCV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baotong/Desktop/doc_file/xray_astro/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9763C72-0D84-9E4C-99D1-F83CC7255978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46D5D04-6AB7-2347-938A-54B63346176F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38120" yWindow="3340" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{9590E9C2-2E9C-7C4F-95FF-F25CE9DE0D35}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>HT CAS</t>
   </si>
@@ -162,10 +162,6 @@
   </si>
   <si>
     <t>KL Dra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V558 Vi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -250,15 +246,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -284,6 +271,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -308,8 +303,8 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,26 +1154,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE68569-5D09-724A-8DAA-D7B5931A89FD}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="21">
-      <c r="A1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1186,7 +1181,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1194,7 +1189,7 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1202,7 +1197,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1210,7 +1205,7 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1218,15 +1213,15 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1234,39 +1229,39 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1274,7 +1269,7 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1282,88 +1277,80 @@
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="D18" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>47</v>
+      <c r="D21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4" t="s">
-        <v>56</v>
+      <c r="A22" t="s">
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="D23" t="s">
-        <v>51</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D23">
-    <sortCondition ref="D1:D23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
+    <sortCondition ref="D1:D22"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xmmCV.xlsx
+++ b/xmmCV.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baotong/Desktop/doc_file/xray_astro/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46D5D04-6AB7-2347-938A-54B63346176F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F9FD0A-4795-444B-9736-A704622DC221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38120" yWindow="3340" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{9590E9C2-2E9C-7C4F-95FF-F25CE9DE0D35}"/>
+    <workbookView xWindow="38120" yWindow="3320" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{9590E9C2-2E9C-7C4F-95FF-F25CE9DE0D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1157,7 +1156,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1355,17 +1354,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E13F3A4-2218-BB49-B21C-B79039145AA2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/xmmCV.xlsx
+++ b/xmmCV.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baotong/Desktop/doc_file/xray_astro/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F9FD0A-4795-444B-9736-A704622DC221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F2A903-1B48-F443-A153-8F94C0842154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38120" yWindow="3320" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{9590E9C2-2E9C-7C4F-95FF-F25CE9DE0D35}"/>
+    <workbookView xWindow="38120" yWindow="3320" windowWidth="25600" windowHeight="15540" xr2:uid="{9590E9C2-2E9C-7C4F-95FF-F25CE9DE0D35}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="2022" sheetId="2" r:id="rId1"/>
+    <sheet name="2020" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>HT CAS</t>
   </si>
@@ -196,10 +196,6 @@
   </si>
   <si>
     <t>GK Per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DN?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -618,11 +614,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE68569-5D09-724A-8DAA-D7B5931A89FD}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
+    <sortCondition ref="B1:B22"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125DD695-87DD-7848-A65C-B77E119DE0A7}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1149,209 +1340,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE68569-5D09-724A-8DAA-D7B5931A89FD}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="21">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
-    <sortCondition ref="D1:D22"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/xmmCV.xlsx
+++ b/xmmCV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baotong/Desktop/doc_file/xray_astro/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F2A903-1B48-F443-A153-8F94C0842154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E46DBD-E670-E949-B209-DEF6704C7F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38120" yWindow="3320" windowWidth="25600" windowHeight="15540" xr2:uid="{9590E9C2-2E9C-7C4F-95FF-F25CE9DE0D35}"/>
   </bookViews>
@@ -203,9 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Z Chamaleontis</t>
-  </si>
-  <si>
     <t>V893 Sco</t>
   </si>
   <si>
@@ -223,13 +220,17 @@
   </si>
   <si>
     <t xml:space="preserve">V396 Hya  </t>
+  </si>
+  <si>
+    <t>Z Cha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,18 +262,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -295,12 +319,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -617,191 +644,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE68569-5D09-724A-8DAA-D7B5931A89FD}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="31">
+      <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="23">
+      <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="23">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="23">
+      <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" ht="23">
+      <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" ht="23">
+      <c r="A6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="23">
+      <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="23">
+      <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="9" spans="1:2" ht="23">
+      <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+    <row r="10" spans="1:2" ht="23">
+      <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="11" spans="1:2" ht="23">
+      <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+    <row r="12" spans="1:2" ht="23">
+      <c r="A12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="23">
+      <c r="A13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="23">
+      <c r="A14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="23">
+      <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B15" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="16" spans="1:2" ht="23">
+      <c r="A16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="23">
+      <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="18" spans="1:2" ht="23">
+      <c r="A18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="23">
+      <c r="A19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23">
+      <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B20" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="21" spans="1:2" ht="23">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="23">
+      <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
-    <sortCondition ref="B1:B22"/>
+    <sortCondition ref="A1:A22"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xmmCV.xlsx
+++ b/xmmCV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baotong/Desktop/doc_file/xray_astro/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E46DBD-E670-E949-B209-DEF6704C7F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AEE1A7-A46C-AD4B-BDDB-4744B3A96772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38120" yWindow="3320" windowWidth="25600" windowHeight="15540" xr2:uid="{9590E9C2-2E9C-7C4F-95FF-F25CE9DE0D35}"/>
   </bookViews>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,6 +262,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="24"/>
       <color theme="1"/>
@@ -285,19 +293,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -319,15 +314,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -642,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE68569-5D09-724A-8DAA-D7B5931A89FD}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -655,178 +651,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="31">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="23">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="23">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="23">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="23">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="23">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="23">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:2" ht="23" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="23">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:2" s="3" customFormat="1" ht="23">
+      <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="23">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="23">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="23">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" ht="23">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="23">
+      <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="23">
-      <c r="A18" s="4" t="s">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="23">
+      <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="23">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:4" s="8" customFormat="1" ht="23">
+      <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="23">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:4" ht="23">
+      <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="23">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:4" ht="23">
+      <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="23">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:4" ht="23">
+      <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
     </row>

--- a/xmmCV.xlsx
+++ b/xmmCV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baotong/Desktop/doc_file/xray_astro/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AEE1A7-A46C-AD4B-BDDB-4744B3A96772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A98B06-7C73-0849-85EC-589D3F7B4CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38120" yWindow="3320" windowWidth="25600" windowHeight="15540" xr2:uid="{9590E9C2-2E9C-7C4F-95FF-F25CE9DE0D35}"/>
   </bookViews>
@@ -641,7 +641,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -692,23 +692,23 @@
     </row>
     <row r="6" spans="1:2" ht="23">
       <c r="A6" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="23">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="23">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
+      <c r="A8" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>44</v>
@@ -716,23 +716,23 @@
     </row>
     <row r="9" spans="1:2" ht="23">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="23">
-      <c r="A10" s="6" t="s">
-        <v>33</v>
+      <c r="A10" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="23">
-      <c r="A11" s="5" t="s">
-        <v>40</v>
+      <c r="A11" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>44</v>
@@ -740,64 +740,64 @@
     </row>
     <row r="12" spans="1:2" ht="23" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="3" customFormat="1" ht="23">
-      <c r="A13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>46</v>
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="23">
       <c r="A14" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="23">
-      <c r="A15" s="6" t="s">
-        <v>38</v>
+      <c r="A15" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="23">
       <c r="A16" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="23">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="23">
-      <c r="A18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="8" customFormat="1" ht="23">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>46</v>
@@ -805,10 +805,10 @@
     </row>
     <row r="20" spans="1:4" ht="23">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="23">
@@ -829,7 +829,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
-    <sortCondition ref="A1:A22"/>
+    <sortCondition ref="B1:B22"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
